--- a/data/output/FV2504_FV2410/QUOTES/15001.xlsx
+++ b/data/output/FV2504_FV2410/QUOTES/15001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5212" uniqueCount="527">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5233" uniqueCount="527">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1761,6 +1761,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U232" totalsRowShown="0">
+  <autoFilter ref="A1:U232"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2050,7 +2080,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13235,5 +13268,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/QUOTES/15001.xlsx
+++ b/data/output/FV2504_FV2410/QUOTES/15001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6389" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6275" uniqueCount="750">
   <si>
     <t>#</t>
   </si>
@@ -6830,9 +6830,7 @@
         <v>425</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>38</v>
       </c>
@@ -7810,9 +7808,7 @@
         <v>449</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>43</v>
       </c>
@@ -7866,9 +7862,7 @@
         <v>449</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>43</v>
       </c>
@@ -7922,9 +7916,7 @@
         <v>425</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>43</v>
       </c>
@@ -7978,9 +7970,7 @@
         <v>425</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>43</v>
       </c>
@@ -8034,9 +8024,7 @@
         <v>448</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>43</v>
       </c>
@@ -8090,9 +8078,7 @@
         <v>448</v>
       </c>
       <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="5" t="s">
         <v>43</v>
       </c>
@@ -8146,9 +8132,7 @@
         <v>425</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>43</v>
       </c>
@@ -8202,9 +8186,7 @@
         <v>449</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>43</v>
       </c>
@@ -8258,9 +8240,7 @@
         <v>449</v>
       </c>
       <c r="K106" s="5"/>
-      <c r="L106" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="5" t="s">
         <v>43</v>
       </c>
@@ -8372,9 +8352,7 @@
         <v>449</v>
       </c>
       <c r="K108" s="5"/>
-      <c r="L108" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5" t="s">
         <v>43</v>
       </c>
@@ -8546,9 +8524,7 @@
         <v>450</v>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>43</v>
       </c>
@@ -8602,9 +8578,7 @@
         <v>450</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>43</v>
       </c>
@@ -8658,9 +8632,7 @@
         <v>451</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>43</v>
       </c>
@@ -8716,9 +8688,7 @@
       <c r="K114" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="L114" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>43</v>
       </c>
@@ -8886,9 +8856,7 @@
         <v>425</v>
       </c>
       <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5" t="s">
         <v>44</v>
       </c>
@@ -8942,9 +8910,7 @@
         <v>425</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>44</v>
       </c>
@@ -8998,9 +8964,7 @@
         <v>425</v>
       </c>
       <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L119" s="4"/>
       <c r="M119" s="5" t="s">
         <v>44</v>
       </c>
@@ -9054,9 +9018,7 @@
         <v>425</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>44</v>
       </c>
@@ -9110,9 +9072,7 @@
         <v>425</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>44</v>
       </c>
@@ -9166,9 +9126,7 @@
         <v>425</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>44</v>
       </c>
@@ -9222,9 +9180,7 @@
         <v>425</v>
       </c>
       <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>44</v>
       </c>
@@ -9278,9 +9234,7 @@
         <v>453</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>44</v>
       </c>
@@ -9334,9 +9288,7 @@
         <v>425</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>44</v>
       </c>
@@ -9390,9 +9342,7 @@
         <v>425</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>44</v>
       </c>
@@ -9446,9 +9396,7 @@
         <v>425</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>44</v>
       </c>
@@ -9502,9 +9450,7 @@
         <v>425</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>44</v>
       </c>
@@ -9558,9 +9504,7 @@
         <v>425</v>
       </c>
       <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="5" t="s">
         <v>44</v>
       </c>
@@ -9614,9 +9558,7 @@
         <v>425</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>44</v>
       </c>
@@ -9670,9 +9612,7 @@
         <v>425</v>
       </c>
       <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>44</v>
       </c>
@@ -9726,9 +9666,7 @@
         <v>425</v>
       </c>
       <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>44</v>
       </c>
@@ -9782,9 +9720,7 @@
         <v>425</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>44</v>
       </c>
@@ -9838,9 +9774,7 @@
         <v>425</v>
       </c>
       <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>44</v>
       </c>
@@ -9894,9 +9828,7 @@
         <v>425</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>44</v>
       </c>
@@ -9950,9 +9882,7 @@
         <v>425</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>44</v>
       </c>
@@ -10118,9 +10048,7 @@
         <v>425</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>45</v>
       </c>
@@ -10174,9 +10102,7 @@
         <v>425</v>
       </c>
       <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>45</v>
       </c>
@@ -10342,9 +10268,7 @@
         <v>425</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>46</v>
       </c>
@@ -10658,9 +10582,7 @@
         <v>425</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>48</v>
       </c>
@@ -10714,9 +10636,7 @@
         <v>425</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>48</v>
       </c>
@@ -10770,9 +10690,7 @@
         <v>425</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>48</v>
       </c>
@@ -11146,9 +11064,7 @@
         <v>425</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>50</v>
       </c>
@@ -11202,9 +11118,7 @@
         <v>425</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>50</v>
       </c>
@@ -11518,9 +11432,7 @@
         <v>425</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>51</v>
       </c>
@@ -11574,9 +11486,7 @@
         <v>425</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>51</v>
       </c>
@@ -11630,9 +11540,7 @@
         <v>425</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>51</v>
       </c>
@@ -11686,9 +11594,7 @@
         <v>425</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>51</v>
       </c>
@@ -11742,9 +11648,7 @@
         <v>425</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>51</v>
       </c>
@@ -12058,9 +11962,7 @@
         <v>425</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>52</v>
       </c>
@@ -12678,9 +12580,7 @@
         <v>448</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>55</v>
       </c>
@@ -12734,9 +12634,7 @@
         <v>448</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>55</v>
       </c>
@@ -12790,9 +12688,7 @@
         <v>449</v>
       </c>
       <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>55</v>
       </c>
@@ -13166,9 +13062,7 @@
         <v>425</v>
       </c>
       <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L196" s="4"/>
       <c r="M196" s="5" t="s">
         <v>56</v>
       </c>
@@ -13909,44 +13803,42 @@
       <c r="V211" s="5"/>
     </row>
     <row r="212" spans="1:22">
-      <c r="A212" s="5" t="s">
+      <c r="A212" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="5" t="s">
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K212" s="5"/>
-      <c r="L212" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="M212" s="5" t="s">
+      <c r="K212" s="2"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N212" s="5" t="s">
+      <c r="N212" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O212" s="5"/>
-      <c r="P212" s="5"/>
-      <c r="Q212" s="5"/>
-      <c r="R212" s="5"/>
-      <c r="S212" s="5"/>
-      <c r="T212" s="5"/>
-      <c r="U212" s="5" t="s">
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="V212" s="5"/>
+      <c r="V212" s="2"/>
     </row>
     <row r="213" spans="1:22">
       <c r="A213" s="5" t="s">
@@ -14225,46 +14117,44 @@
       <c r="V217" s="5"/>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5" t="s">
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="K218" s="5" t="s">
+      <c r="K218" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="L218" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="M218" s="5" t="s">
+      <c r="L218" s="4"/>
+      <c r="M218" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N218" s="5" t="s">
+      <c r="N218" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O218" s="5"/>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5" t="s">
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="V218" s="5" t="s">
+      <c r="V218" s="2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -14512,9 +14402,7 @@
         <v>425</v>
       </c>
       <c r="K223" s="5"/>
-      <c r="L223" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L223" s="4"/>
       <c r="M223" s="5" t="s">
         <v>61</v>
       </c>
@@ -14568,9 +14456,7 @@
         <v>425</v>
       </c>
       <c r="K224" s="5"/>
-      <c r="L224" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="L224" s="4"/>
       <c r="M224" s="5" t="s">
         <v>61</v>
       </c>

--- a/data/output/FV2504_FV2410/QUOTES/15001.xlsx
+++ b/data/output/FV2504_FV2410/QUOTES/15001.xlsx
@@ -2414,7 +2414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2436,6 +2436,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2887,7 +2890,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3251,7 +3254,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3397,7 +3400,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3601,7 +3604,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -3801,7 +3804,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -3945,7 +3948,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4145,7 +4148,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4345,7 +4348,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -4603,7 +4606,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -4961,7 +4964,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5157,7 +5160,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5531,7 +5534,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5885,7 +5888,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -6023,7 +6026,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6173,7 +6176,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6437,7 +6440,7 @@
         <v>475</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6525,26 +6528,26 @@
       <c r="B74" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8" t="s">
+      <c r="E74" s="9"/>
+      <c r="F74" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8" t="s">
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="K74" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="L74" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M74" s="5"/>
@@ -6562,33 +6565,33 @@
       <c r="A75" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8" t="s">
+      <c r="H75" s="9"/>
+      <c r="I75" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="J75" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="9" t="s">
+      <c r="J75" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="K75" s="9"/>
+      <c r="L75" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M75" s="5"/>
@@ -6606,33 +6609,33 @@
       <c r="A76" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8" t="s">
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="K76" s="8" t="s">
+      <c r="K76" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="L76" s="9" t="s">
+      <c r="L76" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M76" s="5"/>
@@ -6650,33 +6653,33 @@
       <c r="A77" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8" t="s">
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="J77" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="K77" s="8"/>
-      <c r="L77" s="9" t="s">
+      <c r="J77" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M77" s="5"/>
@@ -6691,26 +6694,26 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>440</v>
       </c>
       <c r="K78" s="6" t="s">
@@ -6719,23 +6722,23 @@
       <c r="L78" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O78" s="5" t="s">
+      <c r="O78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P78" s="5"/>
+      <c r="P78" s="2"/>
       <c r="Q78" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>440</v>
       </c>
       <c r="V78" s="6" t="s">
@@ -6973,26 +6976,26 @@
       <c r="V82" s="5"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E83" s="5"/>
+      <c r="E83" s="2"/>
       <c r="F83" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5" t="s">
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
         <v>442</v>
       </c>
       <c r="K83" s="6" t="s">
@@ -7001,23 +7004,23 @@
       <c r="L83" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M83" s="5" t="s">
+      <c r="M83" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N83" s="5" t="s">
+      <c r="N83" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O83" s="5" t="s">
+      <c r="O83" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P83" s="5"/>
+      <c r="P83" s="2"/>
       <c r="Q83" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5" t="s">
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2" t="s">
         <v>442</v>
       </c>
       <c r="V83" s="6" t="s">
@@ -7201,26 +7204,26 @@
       <c r="V86" s="5"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="2"/>
       <c r="F87" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5" t="s">
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
         <v>443</v>
       </c>
       <c r="K87" s="6" t="s">
@@ -7229,23 +7232,23 @@
       <c r="L87" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="N87" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O87" s="5" t="s">
+      <c r="O87" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P87" s="5"/>
+      <c r="P87" s="2"/>
       <c r="Q87" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5" t="s">
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2" t="s">
         <v>443</v>
       </c>
       <c r="V87" s="6" t="s">
@@ -7361,52 +7364,52 @@
       <c r="V89" s="5"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="2"/>
       <c r="F90" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5" t="s">
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K90" s="5"/>
+      <c r="K90" s="2"/>
       <c r="L90" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="M90" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O90" s="5" t="s">
+      <c r="O90" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P90" s="5"/>
+      <c r="P90" s="2"/>
       <c r="Q90" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5" t="s">
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="V90" s="5"/>
+      <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -7521,22 +7524,22 @@
       <c r="V92" s="5"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="s">
+      <c r="C93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>447</v>
       </c>
       <c r="K93" s="6" t="s">
@@ -7545,19 +7548,19 @@
       <c r="L93" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N93" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5" t="s">
+      <c r="N93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>447</v>
       </c>
       <c r="V93" s="6" t="s">
@@ -7673,52 +7676,52 @@
       <c r="V95" s="5"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E96" s="5"/>
+      <c r="C96" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5" t="s">
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="K96" s="5"/>
+      <c r="K96" s="2"/>
       <c r="L96" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M96" s="5" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N96" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O96" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P96" s="5"/>
+      <c r="N96" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P96" s="2"/>
       <c r="Q96" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5" t="s">
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="V96" s="5"/>
+      <c r="V96" s="2"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -8717,26 +8720,26 @@
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E115" s="5"/>
+      <c r="C115" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E115" s="2"/>
       <c r="F115" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5" t="s">
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
         <v>452</v>
       </c>
       <c r="K115" s="6" t="s">
@@ -8745,23 +8748,23 @@
       <c r="L115" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M115" s="5" t="s">
+      <c r="M115" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N115" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O115" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P115" s="5"/>
+      <c r="N115" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P115" s="2"/>
       <c r="Q115" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5" t="s">
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2" t="s">
         <v>452</v>
       </c>
       <c r="V115" s="6" t="s">
@@ -9909,26 +9912,26 @@
       <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E137" s="5"/>
+      <c r="C137" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E137" s="2"/>
       <c r="F137" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2" t="s">
         <v>454</v>
       </c>
       <c r="K137" s="6" t="s">
@@ -9937,23 +9940,23 @@
       <c r="L137" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M137" s="5" t="s">
+      <c r="M137" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N137" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O137" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P137" s="5"/>
+      <c r="N137" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P137" s="2"/>
       <c r="Q137" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5" t="s">
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2" t="s">
         <v>454</v>
       </c>
       <c r="V137" s="6" t="s">
@@ -10129,26 +10132,26 @@
       <c r="V140" s="5"/>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E141" s="5"/>
+      <c r="C141" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E141" s="2"/>
       <c r="F141" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5" t="s">
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2" t="s">
         <v>454</v>
       </c>
       <c r="K141" s="6" t="s">
@@ -10157,23 +10160,23 @@
       <c r="L141" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M141" s="5" t="s">
+      <c r="M141" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N141" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O141" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P141" s="5"/>
+      <c r="N141" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P141" s="2"/>
       <c r="Q141" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5" t="s">
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2" t="s">
         <v>454</v>
       </c>
       <c r="V141" s="6" t="s">
@@ -10295,22 +10298,22 @@
       <c r="V143" s="5"/>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5" t="s">
+      <c r="C144" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2" t="s">
         <v>455</v>
       </c>
       <c r="K144" s="6" t="s">
@@ -10319,19 +10322,19 @@
       <c r="L144" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M144" s="5" t="s">
+      <c r="M144" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N144" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5" t="s">
+      <c r="N144" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2" t="s">
         <v>455</v>
       </c>
       <c r="V144" s="6" t="s">
@@ -10447,52 +10450,52 @@
       <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E147" s="5"/>
+      <c r="C147" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E147" s="2"/>
       <c r="F147" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5" t="s">
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="K147" s="5"/>
+      <c r="K147" s="2"/>
       <c r="L147" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M147" s="5" t="s">
+      <c r="M147" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N147" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O147" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P147" s="5"/>
+      <c r="N147" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P147" s="2"/>
       <c r="Q147" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5" t="s">
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="V147" s="5"/>
+      <c r="V147" s="2"/>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="5" t="s">
@@ -10777,22 +10780,22 @@
       </c>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5" t="s">
+      <c r="C153" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2" t="s">
         <v>457</v>
       </c>
       <c r="K153" s="6" t="s">
@@ -10801,19 +10804,19 @@
       <c r="L153" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M153" s="5" t="s">
+      <c r="M153" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N153" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="5"/>
-      <c r="U153" s="5" t="s">
+      <c r="N153" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="2"/>
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="2" t="s">
         <v>457</v>
       </c>
       <c r="V153" s="6" t="s">
@@ -10929,52 +10932,52 @@
       <c r="V155" s="5"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E156" s="5"/>
+      <c r="C156" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E156" s="2"/>
       <c r="F156" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5" t="s">
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="K156" s="5"/>
+      <c r="K156" s="2"/>
       <c r="L156" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M156" s="5" t="s">
+      <c r="M156" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N156" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O156" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P156" s="5"/>
+      <c r="N156" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P156" s="2"/>
       <c r="Q156" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
-      <c r="U156" s="5" t="s">
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="V156" s="5"/>
+      <c r="V156" s="2"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="5" t="s">
@@ -11145,22 +11148,22 @@
       <c r="V159" s="5"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5" t="s">
+      <c r="C160" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2" t="s">
         <v>458</v>
       </c>
       <c r="K160" s="6" t="s">
@@ -11169,19 +11172,19 @@
       <c r="L160" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M160" s="5" t="s">
+      <c r="M160" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N160" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5" t="s">
+      <c r="N160" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2" t="s">
         <v>458</v>
       </c>
       <c r="V160" s="6" t="s">
@@ -11675,22 +11678,22 @@
       <c r="V169" s="5"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5" t="s">
+      <c r="C170" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2" t="s">
         <v>459</v>
       </c>
       <c r="K170" s="6" t="s">
@@ -11699,19 +11702,19 @@
       <c r="L170" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M170" s="5" t="s">
+      <c r="M170" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N170" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O170" s="5"/>
-      <c r="P170" s="5"/>
-      <c r="Q170" s="5"/>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5" t="s">
+      <c r="N170" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2" t="s">
         <v>459</v>
       </c>
       <c r="V170" s="6" t="s">
@@ -11989,22 +11992,22 @@
       <c r="V175" s="5"/>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C176" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5" t="s">
+      <c r="C176" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2" t="s">
         <v>460</v>
       </c>
       <c r="K176" s="6" t="s">
@@ -12013,19 +12016,19 @@
       <c r="L176" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M176" s="5" t="s">
+      <c r="M176" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N176" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O176" s="5"/>
-      <c r="P176" s="5"/>
-      <c r="Q176" s="5"/>
-      <c r="R176" s="5"/>
-      <c r="S176" s="5"/>
-      <c r="T176" s="5"/>
-      <c r="U176" s="5" t="s">
+      <c r="N176" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="2" t="s">
         <v>460</v>
       </c>
       <c r="V176" s="6" t="s">
@@ -12141,22 +12144,22 @@
       <c r="V178" s="5"/>
     </row>
     <row r="179" spans="1:22">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="5" t="s">
+      <c r="C179" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2" t="s">
         <v>461</v>
       </c>
       <c r="K179" s="6" t="s">
@@ -12165,19 +12168,19 @@
       <c r="L179" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M179" s="5" t="s">
+      <c r="M179" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N179" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O179" s="5"/>
-      <c r="P179" s="5"/>
-      <c r="Q179" s="5"/>
-      <c r="R179" s="5"/>
-      <c r="S179" s="5"/>
-      <c r="T179" s="5"/>
-      <c r="U179" s="5" t="s">
+      <c r="N179" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+      <c r="R179" s="2"/>
+      <c r="S179" s="2"/>
+      <c r="T179" s="2"/>
+      <c r="U179" s="2" t="s">
         <v>461</v>
       </c>
       <c r="V179" s="6" t="s">
@@ -12293,22 +12296,22 @@
       <c r="V181" s="5"/>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5" t="s">
+      <c r="C182" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
         <v>447</v>
       </c>
       <c r="K182" s="6" t="s">
@@ -12317,19 +12320,19 @@
       <c r="L182" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M182" s="5" t="s">
+      <c r="M182" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N182" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O182" s="5"/>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
+      <c r="N182" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2" t="s">
         <v>447</v>
       </c>
       <c r="V182" s="6" t="s">
@@ -12775,22 +12778,22 @@
       </c>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5" t="s">
+      <c r="C191" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2" t="s">
         <v>447</v>
       </c>
       <c r="K191" s="6" t="s">
@@ -12799,19 +12802,19 @@
       <c r="L191" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M191" s="5" t="s">
+      <c r="M191" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N191" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O191" s="5"/>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
-      <c r="U191" s="5" t="s">
+      <c r="N191" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2" t="s">
         <v>447</v>
       </c>
       <c r="V191" s="6" t="s">
@@ -13095,22 +13098,22 @@
       <c r="B197" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
-      <c r="J197" s="8" t="s">
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="K197" s="8" t="s">
+      <c r="K197" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="L197" s="9" t="s">
+      <c r="L197" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M197" s="5"/>
@@ -13128,27 +13131,27 @@
       <c r="A198" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D198" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8" t="s">
+      <c r="E198" s="9"/>
+      <c r="F198" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
-      <c r="J198" s="8" t="s">
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="K198" s="8"/>
-      <c r="L198" s="9" t="s">
+      <c r="K198" s="9"/>
+      <c r="L198" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M198" s="5"/>
@@ -13166,33 +13169,33 @@
       <c r="A199" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D199" s="8" t="s">
+      <c r="D199" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E199" s="8" t="s">
+      <c r="E199" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F199" s="8" t="s">
+      <c r="F199" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G199" s="8" t="s">
+      <c r="G199" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H199" s="8"/>
-      <c r="I199" s="8" t="s">
+      <c r="H199" s="9"/>
+      <c r="I199" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="J199" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="K199" s="8"/>
-      <c r="L199" s="9" t="s">
+      <c r="J199" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="K199" s="9"/>
+      <c r="L199" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M199" s="5"/>
@@ -13210,33 +13213,33 @@
       <c r="A200" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D200" s="8" t="s">
+      <c r="D200" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E200" s="8" t="s">
+      <c r="E200" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F200" s="8" t="s">
+      <c r="F200" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8" t="s">
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J200" s="8" t="s">
+      <c r="J200" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="K200" s="8" t="s">
+      <c r="K200" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="L200" s="9" t="s">
+      <c r="L200" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M200" s="5"/>
@@ -13251,21 +13254,21 @@
       <c r="V200" s="5"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C201" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
       <c r="J201" s="6" t="s">
         <v>440</v>
       </c>
@@ -13275,18 +13278,18 @@
       <c r="L201" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M201" s="5" t="s">
+      <c r="M201" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N201" s="5" t="s">
+      <c r="N201" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O201" s="5"/>
-      <c r="P201" s="5"/>
-      <c r="Q201" s="5"/>
-      <c r="R201" s="5"/>
-      <c r="S201" s="5"/>
-      <c r="T201" s="5"/>
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
       <c r="U201" s="6" t="s">
         <v>509</v>
       </c>
@@ -13476,33 +13479,33 @@
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
-      <c r="L205" s="10" t="s">
+      <c r="L205" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="M205" s="11" t="s">
+      <c r="M205" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N205" s="11" t="s">
+      <c r="N205" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O205" s="11" t="s">
+      <c r="O205" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="P205" s="11" t="s">
+      <c r="P205" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="Q205" s="11" t="s">
+      <c r="Q205" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="R205" s="11"/>
-      <c r="S205" s="11"/>
-      <c r="T205" s="11" t="s">
+      <c r="R205" s="12"/>
+      <c r="S205" s="12"/>
+      <c r="T205" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="U205" s="11" t="s">
+      <c r="U205" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="V205" s="11" t="s">
+      <c r="V205" s="12" t="s">
         <v>477</v>
       </c>
     </row>
@@ -13520,35 +13523,35 @@
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
-      <c r="L206" s="10" t="s">
+      <c r="L206" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="M206" s="11" t="s">
+      <c r="M206" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N206" s="11" t="s">
+      <c r="N206" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O206" s="11" t="s">
+      <c r="O206" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="P206" s="11" t="s">
+      <c r="P206" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="Q206" s="11" t="s">
+      <c r="Q206" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="R206" s="11" t="s">
+      <c r="R206" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="S206" s="11"/>
-      <c r="T206" s="11" t="s">
+      <c r="S206" s="12"/>
+      <c r="T206" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="U206" s="11" t="s">
+      <c r="U206" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="V206" s="11"/>
+      <c r="V206" s="12"/>
     </row>
     <row r="207" spans="1:22">
       <c r="A207" s="5" t="s">
@@ -13564,53 +13567,53 @@
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
-      <c r="L207" s="10" t="s">
+      <c r="L207" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="M207" s="11" t="s">
+      <c r="M207" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N207" s="11" t="s">
+      <c r="N207" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O207" s="11" t="s">
+      <c r="O207" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="P207" s="11" t="s">
+      <c r="P207" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="Q207" s="11"/>
-      <c r="R207" s="11" t="s">
+      <c r="Q207" s="12"/>
+      <c r="R207" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="S207" s="11"/>
-      <c r="T207" s="11" t="s">
+      <c r="S207" s="12"/>
+      <c r="T207" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="U207" s="11" t="s">
+      <c r="U207" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="V207" s="11" t="s">
+      <c r="V207" s="12" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="208" spans="1:22">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5" t="s">
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2" t="s">
         <v>464</v>
       </c>
       <c r="K208" s="6" t="s">
@@ -13619,19 +13622,19 @@
       <c r="L208" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M208" s="5" t="s">
+      <c r="M208" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N208" s="5" t="s">
+      <c r="N208" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O208" s="5"/>
-      <c r="P208" s="5"/>
-      <c r="Q208" s="5"/>
-      <c r="R208" s="5"/>
-      <c r="S208" s="5"/>
-      <c r="T208" s="5"/>
-      <c r="U208" s="5" t="s">
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2" t="s">
         <v>464</v>
       </c>
       <c r="V208" s="6" t="s">
@@ -13823,7 +13826,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -14139,7 +14142,7 @@
         <v>495</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -14483,48 +14486,48 @@
       <c r="V224" s="5"/>
     </row>
     <row r="225" spans="1:22">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5" t="s">
+      <c r="C225" s="2"/>
+      <c r="D225" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E225" s="5"/>
+      <c r="E225" s="2"/>
       <c r="F225" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G225" s="5"/>
-      <c r="H225" s="5"/>
-      <c r="I225" s="5"/>
-      <c r="J225" s="5" t="s">
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="K225" s="5"/>
+      <c r="K225" s="2"/>
       <c r="L225" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M225" s="5" t="s">
+      <c r="M225" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N225" s="5"/>
-      <c r="O225" s="5" t="s">
+      <c r="N225" s="2"/>
+      <c r="O225" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P225" s="5"/>
+      <c r="P225" s="2"/>
       <c r="Q225" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="R225" s="5"/>
-      <c r="S225" s="5"/>
-      <c r="T225" s="5"/>
-      <c r="U225" s="5" t="s">
+      <c r="R225" s="2"/>
+      <c r="S225" s="2"/>
+      <c r="T225" s="2"/>
+      <c r="U225" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="V225" s="5"/>
+      <c r="V225" s="2"/>
     </row>
     <row r="226" spans="1:22">
       <c r="A226" s="5" t="s">
@@ -14585,24 +14588,24 @@
       <c r="B227" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C227" s="8"/>
-      <c r="D227" s="8" t="s">
+      <c r="C227" s="9"/>
+      <c r="D227" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8" t="s">
+      <c r="E227" s="9"/>
+      <c r="F227" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8"/>
-      <c r="J227" s="8" t="s">
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="9"/>
+      <c r="J227" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="K227" s="8" t="s">
+      <c r="K227" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="L227" s="9" t="s">
+      <c r="L227" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M227" s="5"/>
@@ -14620,31 +14623,31 @@
       <c r="A228" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C228" s="8"/>
-      <c r="D228" s="8" t="s">
+      <c r="C228" s="9"/>
+      <c r="D228" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E228" s="8" t="s">
+      <c r="E228" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F228" s="8" t="s">
+      <c r="F228" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="G228" s="8" t="s">
+      <c r="G228" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8" t="s">
+      <c r="H228" s="9"/>
+      <c r="I228" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="J228" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="K228" s="8"/>
-      <c r="L228" s="9" t="s">
+      <c r="J228" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="K228" s="9"/>
+      <c r="L228" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M228" s="5"/>
@@ -14662,31 +14665,31 @@
       <c r="A229" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C229" s="8"/>
-      <c r="D229" s="8" t="s">
+      <c r="C229" s="9"/>
+      <c r="D229" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E229" s="8" t="s">
+      <c r="E229" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F229" s="8" t="s">
+      <c r="F229" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="G229" s="8"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="8" t="s">
+      <c r="G229" s="9"/>
+      <c r="H229" s="9"/>
+      <c r="I229" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J229" s="8" t="s">
+      <c r="J229" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="K229" s="8" t="s">
+      <c r="K229" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="L229" s="9" t="s">
+      <c r="L229" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M229" s="5"/>
@@ -14701,48 +14704,48 @@
       <c r="V229" s="5"/>
     </row>
     <row r="230" spans="1:22">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5" t="s">
+      <c r="C230" s="2"/>
+      <c r="D230" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E230" s="5"/>
+      <c r="E230" s="2"/>
       <c r="F230" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G230" s="5"/>
-      <c r="H230" s="5"/>
-      <c r="I230" s="5"/>
-      <c r="J230" s="5" t="s">
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="K230" s="5"/>
+      <c r="K230" s="2"/>
       <c r="L230" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="M230" s="5" t="s">
+      <c r="M230" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N230" s="5"/>
-      <c r="O230" s="5" t="s">
+      <c r="N230" s="2"/>
+      <c r="O230" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P230" s="5"/>
+      <c r="P230" s="2"/>
       <c r="Q230" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="R230" s="5"/>
-      <c r="S230" s="5"/>
-      <c r="T230" s="5"/>
-      <c r="U230" s="5" t="s">
+      <c r="R230" s="2"/>
+      <c r="S230" s="2"/>
+      <c r="T230" s="2"/>
+      <c r="U230" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="V230" s="5"/>
+      <c r="V230" s="2"/>
     </row>
     <row r="231" spans="1:22">
       <c r="A231" s="5" t="s">
